--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>Дата</t>
   </si>
@@ -658,11 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V12" sqref="V12"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,9 +796,66 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>44017</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <f>J3*K3</f>
+        <v>2000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
       <formula1>$M$2:$M$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -811,37 +868,37 @@
           <x14:formula1>
             <xm:f>Data!$K$2:$K$4</xm:f>
           </x14:formula1>
-          <xm:sqref>R2</xm:sqref>
+          <xm:sqref>R2:R3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>F2:F3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$F$2:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>M2</xm:sqref>
+          <xm:sqref>M2:M3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$J$2:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2</xm:sqref>
+          <xm:sqref>Q2:Q3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$H$2:$H$9</xm:f>
           </x14:formula1>
-          <xm:sqref>P2</xm:sqref>
+          <xm:sqref>P2:P3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$G$2:$G$9</xm:f>
           </x14:formula1>
-          <xm:sqref>O2</xm:sqref>
+          <xm:sqref>O2:O3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data.xlsx
+++ b/data.xlsx
@@ -662,12 +662,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="3" max="4" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="35.109375" customWidth="1"/>
@@ -684,7 +684,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -741,7 +741,7 @@
     </row>
     <row r="2" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
-        <v>44017</v>
+        <v>44018</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="3" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
-        <v>44017</v>
+        <v>44018</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Actual" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="3" r:id="rId3"/>
-    <sheet name="conf T5500" sheetId="4" r:id="rId4"/>
+    <sheet name="Technic" sheetId="5" r:id="rId1"/>
+    <sheet name="Actual" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" r:id="rId4"/>
+    <sheet name="conf T5500" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>Дата</t>
   </si>
@@ -297,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -331,11 +332,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -356,7 +370,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -658,247 +677,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
-    <col min="6" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" customWidth="1"/>
-    <col min="17" max="17" width="25.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f>G2*H2</f>
+        <v>2000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>44018</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J2">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="K2">
+      <c r="H3">
         <v>100</v>
       </c>
-      <c r="L2">
-        <f>J2*K2</f>
+      <c r="I3">
+        <f>G3*H3</f>
         <v>2000</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="K3" t="s">
         <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>44018</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <f>J3*K3</f>
-        <v>2000</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
-      <formula1>$M$2:$M$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
+      <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Data!$K$2:$K$4</xm:f>
+            <xm:f>Data!$F$2:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R3</xm:sqref>
+          <xm:sqref>J2:J3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$F$2:$F$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>M2:M3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$J$2:$J$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q2:Q3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$H$2:$H$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>P2:P3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$G$2:$G$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>O2:O3</xm:sqref>
+          <xm:sqref>C2:C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -907,6 +833,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>44018</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>$D$2:$D$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$K$2:$K$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$F$2:$F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$J$2:$J$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$H$2:$H$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$G$2:$G$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -918,7 +971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -1075,7 +1128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Technic" sheetId="5" r:id="rId1"/>
@@ -679,9 +679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +806,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
-      <formula1>$J$2:$J$6</formula1>
+      <formula1>$J$2:$J$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -836,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>

--- a/data.xlsx
+++ b/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>Дата</t>
   </si>
@@ -269,6 +269,15 @@
   </si>
   <si>
     <t>Сумма (цифры)</t>
+  </si>
+  <si>
+    <t>Срок поставки</t>
+  </si>
+  <si>
+    <t>10-12 недель</t>
+  </si>
+  <si>
+    <t>5-6 недель</t>
   </si>
 </sst>
 </file>
@@ -349,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -376,6 +385,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -677,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,9 +704,10 @@
     <col min="7" max="9" width="15.5546875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
@@ -730,8 +741,11 @@
       <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="L1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -753,12 +767,12 @@
       <c r="G2">
         <v>20</v>
       </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="14">
+        <v>100.15</v>
+      </c>
+      <c r="I2" s="14">
         <f>G2*H2</f>
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -766,8 +780,11 @@
       <c r="K2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -789,10 +806,10 @@
       <c r="G3">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="14">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="14">
         <f>G3*H3</f>
         <v>2000</v>
       </c>
@@ -801,6 +818,9 @@
       </c>
       <c r="K3" t="s">
         <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>Дата</t>
   </si>
@@ -691,7 +691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -800,9 +800,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3">
         <v>20</v>
       </c>
